--- a/EJJ_DB_20170805.xlsx
+++ b/EJJ_DB_20170805.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="886" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="882">
   <si>
     <t>用户账号表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1376,10 +1376,6 @@
   </si>
   <si>
     <t>展示内容表主键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有定制服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1781,10 +1777,6 @@
   </si>
   <si>
     <t>微信号</t>
-  </si>
-  <si>
-    <t>LOV：1表示正常用户；2表示各院负责人；3:商家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>区域表</t>
@@ -2592,19 +2584,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SuppliersId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CheckStatus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TypeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3009,10 +2993,6 @@
   </si>
   <si>
     <t>ShipToDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3697,10 +3677,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0：大分类（餐饮、超市）1：小分类（泡面、饮料）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>多人负责制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3717,8 +3693,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>OwnerId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopOwner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺配送人ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域（学校）负责人表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校区负责人账户编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegionAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>0</t>
+      <t>false</t>
     </r>
     <r>
       <rPr>
@@ -3735,7 +3751,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
+      <t xml:space="preserve"> true</t>
     </r>
     <r>
       <rPr>
@@ -3757,15 +3773,171 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopOwner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺配送人ID</t>
+    <t>供货商账户的ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：大分类（餐饮、超市）1：超市小分类（泡面、饮料） 2：餐饮小分类（早餐、晚餐）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：下架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：上架</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiperId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(64)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配送人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAliPay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是支付宝支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsWxPay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是微信支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsVip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是会员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：购买订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：采购订单</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIPAmount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderAddress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单人地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人开关店状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV：1，商家 2，餐饮配送员 3，超市配送员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4371,13 +4543,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4458,12 +4630,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4516,12 +4688,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4573,7 +4745,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4622,12 +4794,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4679,7 +4851,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4697,13 +4869,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>294819</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4735,13 +4907,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304344</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4813,7 +4985,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4861,7 +5033,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4910,12 +5082,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4968,12 +5140,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5026,12 +5198,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5084,12 +5256,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5142,12 +5314,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5200,12 +5372,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5258,12 +5430,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5315,7 +5487,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5364,12 +5536,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5421,7 +5593,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5470,12 +5642,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5533,12 +5705,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5591,12 +5763,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5649,12 +5821,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5707,12 +5879,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5765,12 +5937,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5823,12 +5995,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5881,12 +6053,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5939,12 +6111,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5997,12 +6169,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6055,12 +6227,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6113,12 +6285,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6550,12 +6722,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6608,12 +6780,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6666,12 +6838,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6724,12 +6896,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6782,12 +6954,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6840,12 +7012,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6898,12 +7070,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6961,12 +7133,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7019,12 +7191,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7077,12 +7249,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7135,12 +7307,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7193,12 +7365,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7251,12 +7423,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7309,12 +7481,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7367,12 +7539,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7425,12 +7597,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7483,12 +7655,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7541,12 +7713,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7599,12 +7771,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7907,8 +8079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:D55"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7922,7 +8094,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7951,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -7964,7 +8136,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -7977,7 +8149,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
@@ -7990,10 +8162,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
@@ -8003,22 +8175,22 @@
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -8031,7 +8203,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
@@ -8059,13 +8231,13 @@
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" ht="24.75">
       <c r="A12" s="43" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="46" customFormat="1" ht="14.25">
@@ -8085,39 +8257,39 @@
     </row>
     <row r="14" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A14" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A16" s="53"/>
       <c r="B16" s="49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>24</v>
@@ -8127,76 +8299,76 @@
     <row r="17" spans="1:5" s="46" customFormat="1" ht="42.75" customHeight="1">
       <c r="A17" s="53"/>
       <c r="B17" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>471</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A18" s="53"/>
       <c r="B18" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E18" s="48" t="s">
         <v>464</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A20" s="53"/>
       <c r="B20" s="49" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C20" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D20" s="54" t="s">
         <v>468</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>469</v>
       </c>
       <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A21" s="53"/>
       <c r="B21" s="49" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>18</v>
@@ -8209,7 +8381,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>18</v>
@@ -8221,13 +8393,13 @@
     </row>
     <row r="26" spans="1:5" ht="24.75">
       <c r="A26" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8247,13 +8419,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D28" s="86" t="s">
         <v>8</v>
@@ -8263,69 +8435,69 @@
     <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="85" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="85" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="85" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="85" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C32" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="85" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C33" s="85" t="s">
+        <v>798</v>
+      </c>
+      <c r="D33" s="86" t="s">
         <v>803</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>808</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -8335,26 +8507,26 @@
         <v>6</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="30"/>
       <c r="B35" s="20" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8380,13 +8552,13 @@
     </row>
     <row r="39" spans="1:5" ht="24.75">
       <c r="A39" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8409,148 +8581,148 @@
         <v>5</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C41" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6"/>
       <c r="B42" s="85" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
       <c r="B43" s="85" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6"/>
       <c r="B44" s="85" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="85" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C45" s="85" t="s">
         <v>149</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6"/>
       <c r="B46" s="85" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="30"/>
       <c r="B48" s="20" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="30"/>
       <c r="B49" s="20" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="13" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="24.75">
       <c r="A53" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -8579,62 +8751,62 @@
         <v>7</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6"/>
       <c r="B56" s="85" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D56" s="86" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6"/>
       <c r="B57" s="85" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D57" s="86" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6"/>
       <c r="B58" s="85" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D58" s="86" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6"/>
       <c r="B59" s="85" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D59" s="86" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9842,9 +10014,9 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="103"/>
-      <c r="C2" s="100"/>
+      <c r="C2" s="98"/>
       <c r="F2" s="103"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="35"/>
@@ -9857,16 +10029,16 @@
       <c r="G4" s="35"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="N6" s="98" t="s">
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="N6" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="O6" s="99"/>
+      <c r="O6" s="100"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="103"/>
-      <c r="C7" s="100"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -9897,8 +10069,8 @@
       <c r="C9" s="35"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
@@ -9917,10 +10089,10 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="O11" s="99"/>
+      <c r="O11" s="100"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="28"/>
@@ -9946,19 +10118,19 @@
     </row>
     <row r="14" spans="2:19">
       <c r="F14" s="103"/>
-      <c r="G14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
+      <c r="G14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="58" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C15" s="59"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
     </row>
@@ -9967,12 +10139,12 @@
         <v>85</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="J16" s="98" t="s">
+        <v>529</v>
+      </c>
+      <c r="J16" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="99"/>
+      <c r="K16" s="100"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="R16" s="28"/>
@@ -9992,14 +10164,14 @@
     </row>
     <row r="18" spans="2:23">
       <c r="F18" s="101" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G18" s="104"/>
       <c r="J18" s="27" t="s">
         <v>367</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -10007,7 +10179,7 @@
         <v>166</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -10019,12 +10191,12 @@
         <v>118</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="33"/>
       <c r="V20" s="103"/>
-      <c r="W20" s="100"/>
+      <c r="W20" s="98"/>
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="28"/>
@@ -10033,14 +10205,14 @@
         <v>367</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
       <c r="R21" s="103"/>
-      <c r="S21" s="100"/>
+      <c r="S21" s="98"/>
       <c r="V21" s="28"/>
       <c r="W21" s="35"/>
     </row>
@@ -10065,8 +10237,8 @@
     <row r="25" spans="2:23">
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
     </row>
     <row r="26" spans="2:23">
       <c r="N26" s="35"/>
@@ -10076,33 +10248,33 @@
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="101" t="s">
-        <v>542</v>
-      </c>
-      <c r="C27" s="99"/>
+        <v>540</v>
+      </c>
+      <c r="C27" s="100"/>
       <c r="F27" s="101" t="s">
-        <v>538</v>
-      </c>
-      <c r="G27" s="99"/>
+        <v>536</v>
+      </c>
+      <c r="G27" s="100"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="N28" s="98" t="s">
+        <v>528</v>
+      </c>
+      <c r="N28" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="O28" s="99"/>
+      <c r="O28" s="100"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
     </row>
@@ -10111,7 +10283,7 @@
         <v>367</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N29" s="24" t="s">
         <v>6</v>
@@ -10122,10 +10294,10 @@
     </row>
     <row r="30" spans="2:23">
       <c r="F30" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="2:23">
@@ -10134,15 +10306,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B2:C2"/>
@@ -10153,6 +10316,15 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10164,8 +10336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10177,13 +10349,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10219,91 +10391,91 @@
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>770</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30"/>
       <c r="B8" s="11" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="30"/>
       <c r="B10" s="20" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E10" s="20"/>
     </row>
@@ -10316,13 +10488,13 @@
     </row>
     <row r="14" spans="1:5" ht="24.75">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10351,52 +10523,52 @@
         <v>122</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="29"/>
       <c r="B17" s="20" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="30"/>
       <c r="B18" s="20" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>770</v>
       </c>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="30"/>
       <c r="B19" s="20" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>27</v>
@@ -10412,26 +10584,26 @@
     <row r="21" spans="1:5">
       <c r="A21" s="30"/>
       <c r="B21" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="30"/>
       <c r="B22" s="20" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E22" s="20"/>
     </row>
@@ -10466,13 +10638,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="67" customFormat="1" ht="24.75">
       <c r="A1" s="64" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="66" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="67" customFormat="1" ht="14.25">
@@ -10492,44 +10664,44 @@
     </row>
     <row r="3" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A3" s="70" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A4" s="74"/>
       <c r="B4" s="75" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A5" s="74"/>
       <c r="B5" s="75" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="67" customFormat="1" ht="14.25">
@@ -10538,38 +10710,38 @@
         <v>4</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" s="80" customFormat="1" ht="14.25">
       <c r="A7" s="76"/>
       <c r="B7" s="77" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A8" s="74"/>
       <c r="B8" s="75" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E8" s="73"/>
     </row>
@@ -10586,10 +10758,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E10" s="82"/>
     </row>
@@ -10702,7 +10874,7 @@
         <v>278</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12967,10 +13139,10 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:7">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="99"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
@@ -12979,10 +13151,10 @@
       <c r="C11" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="G11" s="99"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="2:7">
       <c r="F12" s="27" t="s">
@@ -13001,10 +13173,10 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="99"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="2:11">
       <c r="F17" s="27" t="s">
@@ -13023,14 +13195,14 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="J19" s="98" t="s">
+      <c r="J19" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="99"/>
+      <c r="K19" s="100"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="J20" s="27" t="s">
         <v>345</v>
       </c>
@@ -13041,8 +13213,8 @@
     <row r="21" spans="2:11">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="28"/>
@@ -13053,10 +13225,10 @@
       <c r="G22" s="28"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="J24" s="98" t="s">
+      <c r="J24" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="K24" s="99"/>
+      <c r="K24" s="100"/>
     </row>
     <row r="25" spans="2:11">
       <c r="J25" s="27" t="s">
@@ -13083,10 +13255,10 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="100"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="27" t="s">
@@ -13095,10 +13267,10 @@
       <c r="C29" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="99"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="2:11">
       <c r="F30" s="27" t="s">
@@ -13125,10 +13297,10 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="99"/>
+      <c r="C33" s="100"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="24" t="s">
@@ -13140,16 +13312,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13176,13 +13348,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13205,39 +13377,39 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E5" s="20"/>
     </row>
@@ -13250,7 +13422,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -13263,20 +13435,20 @@
         <v>18</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="33.75">
       <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>403</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8" s="20"/>
     </row>
@@ -13286,10 +13458,10 @@
         <v>124</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E9" s="20"/>
     </row>
@@ -13302,13 +13474,13 @@
     </row>
     <row r="13" spans="1:5" ht="24.75">
       <c r="A13" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13331,39 +13503,39 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="30"/>
       <c r="B17" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E17" s="20"/>
     </row>
@@ -13376,7 +13548,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="20"/>
     </row>
@@ -13386,13 +13558,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="101.25">
@@ -13401,35 +13573,35 @@
         <v>124</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E21" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="24.75">
       <c r="A24" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13452,26 +13624,26 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -13484,7 +13656,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E28" s="20"/>
     </row>
@@ -13494,23 +13666,23 @@
         <v>14</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="30"/>
       <c r="B30" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E30" s="20"/>
     </row>
@@ -13553,10 +13725,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="14.25">
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="99"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="K3" s="27" t="s">
@@ -13570,21 +13742,21 @@
     </row>
     <row r="6" spans="1:15" ht="14.25">
       <c r="A6" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:15" ht="14.25">
-      <c r="A7" s="98" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="99"/>
+      <c r="A7" s="99" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="100"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="K7" s="27" t="s">
@@ -13596,10 +13768,10 @@
     </row>
     <row r="8" spans="1:15" ht="14.25">
       <c r="A8" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -13608,40 +13780,40 @@
     </row>
     <row r="9" spans="1:15" ht="14.25">
       <c r="A9" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" s="99"/>
+      <c r="G9" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" s="100"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:15" ht="14.25">
       <c r="G10" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="K10" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="1:15" ht="14.25">
-      <c r="D11" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="99"/>
+      <c r="D11" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="100"/>
       <c r="G11" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>115</v>
@@ -13652,46 +13824,46 @@
     </row>
     <row r="12" spans="1:15" ht="14.25">
       <c r="D12" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="D13" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25">
       <c r="D14" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="K14" s="98" t="s">
+        <v>414</v>
+      </c>
+      <c r="K14" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="99"/>
+      <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:15" ht="14.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
       <c r="D15" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>142</v>
@@ -13709,8 +13881,8 @@
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
     </row>
     <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="40"/>
@@ -13724,10 +13896,10 @@
     <row r="18" spans="1:15" ht="14.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
-      <c r="K18" s="98" t="s">
+      <c r="K18" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
@@ -13744,15 +13916,15 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="14.25">
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
     </row>
     <row r="21" spans="1:15">
       <c r="D21" s="24" t="s">
@@ -13768,10 +13940,10 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="14.25">
-      <c r="K22" s="98" t="s">
+      <c r="K22" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="L22" s="99"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -13795,10 +13967,10 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" ht="14.25">
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="L25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
@@ -13813,12 +13985,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K6:L6"/>
@@ -13828,6 +13994,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13860,8 +14032,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="14.25">
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
     </row>
     <row r="3" spans="2:17" ht="14.25">
       <c r="M3" s="28"/>
@@ -13869,38 +14041,38 @@
     </row>
     <row r="4" spans="2:17" ht="14.25">
       <c r="J4" s="101" t="s">
-        <v>542</v>
-      </c>
-      <c r="K4" s="99"/>
+        <v>540</v>
+      </c>
+      <c r="K4" s="100"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="2:17" ht="14.25">
       <c r="J5" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
+        <v>542</v>
+      </c>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
     </row>
     <row r="6" spans="2:17" ht="14.25">
       <c r="J6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:17">
       <c r="J7" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -13908,18 +14080,18 @@
     <row r="8" spans="2:17" ht="14.25">
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
     </row>
     <row r="9" spans="2:17" ht="14.25">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="F9" s="98" t="s">
+      <c r="C9" s="100"/>
+      <c r="F9" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="99"/>
+      <c r="G9" s="100"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="M9" s="40"/>
@@ -13945,14 +14117,14 @@
       <c r="C11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="J11" s="98" t="s">
-        <v>485</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="M11" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="N11" s="99"/>
+      <c r="J11" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="M11" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="N11" s="100"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="40"/>
@@ -13961,38 +14133,38 @@
         <v>6</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="J13" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="14.25">
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
       <c r="M15" s="42"/>
       <c r="N15" s="28"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="2:17" ht="14.25">
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
     </row>
@@ -14006,17 +14178,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14027,10 +14199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14044,13 +14216,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14073,63 +14245,63 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -14138,13 +14310,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -14157,7 +14329,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
@@ -14166,6 +14338,100 @@
         <v>21</v>
       </c>
       <c r="E9" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.75">
+      <c r="A12" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>855</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>828</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="87"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14176,10 +14442,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14192,7 +14458,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14221,10 +14487,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>119</v>
@@ -14234,10 +14500,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
@@ -14247,10 +14513,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
@@ -14260,10 +14526,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>33</v>
@@ -14273,10 +14539,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>34</v>
@@ -14289,7 +14555,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>35</v>
@@ -14301,10 +14567,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>36</v>
@@ -14314,23 +14580,25 @@
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>38</v>
@@ -14340,10 +14608,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>39</v>
@@ -14353,48 +14621,50 @@
     <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="11" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E15" s="11"/>
+        <v>487</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="9" t="s">
@@ -14403,872 +14673,886 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>591</v>
+        <v>110</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.75">
-      <c r="A20" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="30"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75">
+      <c r="A22" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.75">
+      <c r="A34" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="C36" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.75">
-      <c r="A32" s="1" t="s">
+      <c r="C37" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
+      <c r="D37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.75">
+      <c r="A40" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B42" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.75">
+      <c r="A48" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="24.75">
+      <c r="A57" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
+      <c r="D60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="24.75">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="10"/>
+      <c r="B67" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="30"/>
+      <c r="B68" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="72" spans="1:5" ht="24.75">
+      <c r="A72" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="38" spans="1:5" ht="24.75">
-      <c r="A38" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="46" spans="1:5" ht="24.75">
-      <c r="A46" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="D53" s="11"/>
-    </row>
-    <row r="55" spans="1:5" ht="24.75">
-      <c r="A55" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="62" spans="1:5" ht="24.75">
-      <c r="A62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="30"/>
-      <c r="B66" s="20" t="s">
+      <c r="B74" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="70" spans="1:5" ht="24.75">
-      <c r="A70" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="85" t="s">
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C75" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="86" t="s">
-        <v>837</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>246</v>
+      <c r="D75" s="86" t="s">
+        <v>832</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>500</v>
+        <v>843</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10"/>
       <c r="B76" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>642</v>
+        <v>566</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>499</v>
+        <v>73</v>
       </c>
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>643</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="11"/>
+        <v>246</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="D78" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="84" spans="1:6" ht="24.75">
-      <c r="A84" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="3" t="s">
+      <c r="E81" s="13"/>
+    </row>
+    <row r="86" spans="1:6" ht="24.75">
+      <c r="A86" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" t="s">
+      <c r="E88" s="9"/>
+      <c r="F88" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" ht="67.5">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
-        <v>58</v>
+        <v>645</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>376</v>
+      </c>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="67.5">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="97" spans="1:5" ht="24.75">
+      <c r="A97" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="B91" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="C91" s="20" t="s">
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12"/>
+      <c r="B102" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D102" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="95" spans="1:6" ht="24.75">
-      <c r="A95" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="13"/>
+      <c r="E102" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15297,13 +15581,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15326,78 +15610,78 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>22</v>
@@ -15406,10 +15690,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>117</v>
@@ -16479,10 +16763,10 @@
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="I5" s="58" t="s">
         <v>104</v>
       </c>
@@ -16499,7 +16783,7 @@
         <v>85</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -16522,10 +16806,10 @@
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="100"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
@@ -16540,26 +16824,26 @@
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="Q10" s="26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="2:22">
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
-      <c r="Q11" s="98" t="s">
-        <v>382</v>
-      </c>
-      <c r="R11" s="99"/>
+      <c r="Q11" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="R11" s="100"/>
     </row>
     <row r="12" spans="2:22">
       <c r="Q12" s="27" t="s">
         <v>118</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
+        <v>529</v>
+      </c>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
     </row>
     <row r="13" spans="2:22">
       <c r="Q13" s="34"/>
@@ -16573,10 +16857,10 @@
     </row>
     <row r="15" spans="2:22">
       <c r="M15" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
@@ -16585,31 +16869,31 @@
       <c r="B16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="98" t="s">
+      <c r="M16" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="99"/>
-      <c r="Q16" s="98" t="s">
+      <c r="N16" s="100"/>
+      <c r="Q16" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="99"/>
+      <c r="R16" s="100"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="99"/>
+      <c r="C17" s="100"/>
       <c r="M17" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>118</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -16627,8 +16911,8 @@
       <c r="R18" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
     </row>
     <row r="19" spans="2:22">
       <c r="M19" s="27" t="s">
@@ -16645,8 +16929,8 @@
       <c r="F20" s="28"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
@@ -16658,20 +16942,20 @@
       <c r="D21" s="18"/>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="100"/>
       <c r="M21" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q21" s="98" t="s">
-        <v>502</v>
-      </c>
-      <c r="R21" s="99"/>
+        <v>487</v>
+      </c>
+      <c r="Q21" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="R21" s="100"/>
       <c r="S21" s="28"/>
       <c r="V21" s="28"/>
     </row>
@@ -16690,16 +16974,16 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="Q22" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="R22" s="24" t="s">
         <v>55</v>
       </c>
       <c r="S22" s="28"/>
-      <c r="T22" s="98" t="s">
-        <v>488</v>
-      </c>
-      <c r="U22" s="99"/>
+      <c r="T22" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="U22" s="100"/>
       <c r="V22" s="28"/>
     </row>
     <row r="23" spans="2:22">
@@ -16715,17 +16999,17 @@
         <v>93</v>
       </c>
       <c r="Q23" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V23" s="28"/>
     </row>
@@ -16733,31 +17017,31 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="62"/>
       <c r="C25" s="61"/>
       <c r="D25" s="18"/>
       <c r="E25" s="27" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q25" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="R25" s="99"/>
+        <v>529</v>
+      </c>
+      <c r="Q25" s="99" t="s">
+        <v>510</v>
+      </c>
+      <c r="R25" s="100"/>
       <c r="S25" s="40"/>
       <c r="T25" s="28"/>
       <c r="U25" s="40"/>
@@ -16774,10 +17058,10 @@
         <v>82</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S26" s="40"/>
       <c r="T26" s="28"/>
@@ -16791,10 +17075,10 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="Q27" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S27" s="40"/>
       <c r="T27" s="28"/>
@@ -16830,8 +17114,8 @@
       <c r="J36" s="28"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
     </row>
@@ -16841,6 +17125,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="U24:V24"/>
@@ -16848,18 +17144,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16873,8 +17157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16940,7 +17224,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9" t="s">
@@ -16962,86 +17246,86 @@
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>264</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>373</v>
+        <v>850</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>160</v>
+        <v>851</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="94"/>
       <c r="B11" s="95" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75">
       <c r="A17" s="1" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17085,22 +17369,30 @@
         <v>5</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="29"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="95" t="s">
+        <v>844</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>717</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>880</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="29"/>
@@ -17180,16 +17472,16 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:15" ht="14.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="K7" s="24" t="s">
@@ -17216,10 +17508,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25">
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="99"/>
+      <c r="H9" s="100"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
@@ -17230,16 +17522,16 @@
       <c r="H10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="99"/>
+      <c r="O10" s="100"/>
     </row>
     <row r="11" spans="1:15" ht="14.25">
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="G11" s="24" t="s">
         <v>125</v>
       </c>
@@ -17270,14 +17562,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="K15" s="98" t="s">
+      <c r="B15" s="100"/>
+      <c r="K15" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="L15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="N15" s="26" t="s">
         <v>83</v>
       </c>
@@ -17291,15 +17583,15 @@
         <v>268</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="99"/>
+      <c r="O16" s="100"/>
     </row>
     <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="24" t="s">
@@ -17329,14 +17621,14 @@
       <c r="C20" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="L20" s="100"/>
+      <c r="N20" s="99" t="s">
         <v>390</v>
       </c>
-      <c r="L20" s="99"/>
-      <c r="N20" s="98" t="s">
-        <v>391</v>
-      </c>
-      <c r="O20" s="99"/>
+      <c r="O20" s="100"/>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" t="s">
@@ -17346,7 +17638,7 @@
         <v>130</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>131</v>
@@ -17360,16 +17652,16 @@
         <v>257</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N22" s="24" t="s">
         <v>129</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -17401,16 +17693,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17421,10 +17713,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17438,13 +17730,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17467,7 +17759,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>181</v>
@@ -17482,7 +17774,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>122</v>
@@ -17495,7 +17787,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>182</v>
@@ -17508,7 +17800,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -17521,7 +17813,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>18</v>
@@ -17534,7 +17826,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>18</v>
@@ -17547,7 +17839,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>45</v>
@@ -17560,7 +17852,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>122</v>
@@ -17601,7 +17893,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
@@ -17614,10 +17906,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>174</v>
@@ -17627,25 +17919,25 @@
     <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>175</v>
@@ -17655,7 +17947,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="30"/>
       <c r="B19" s="20" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>18</v>
@@ -17668,7 +17960,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="30"/>
       <c r="B20" s="20" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>18</v>
@@ -17681,7 +17973,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="30"/>
       <c r="B21" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
@@ -17694,10 +17986,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="30"/>
       <c r="B22" s="20" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>179</v>
@@ -17707,7 +17999,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="30"/>
       <c r="B23" s="20" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>183</v>
@@ -17715,15 +18007,17 @@
       <c r="D23" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="19" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="30"/>
       <c r="B24" s="20" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>694</v>
+        <v>852</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>184</v>
@@ -17733,10 +18027,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="30"/>
       <c r="B25" s="20" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>185</v>
@@ -17746,10 +18040,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="30"/>
       <c r="B26" s="20" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -17758,639 +18052,706 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="30"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>876</v>
+      </c>
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="30"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>861</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="30"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>866</v>
+      </c>
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="24.75">
-      <c r="A34" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="30"/>
+      <c r="B31" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="30"/>
+      <c r="B32" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.75">
+      <c r="A37" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B39" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="30"/>
+      <c r="B41" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="30"/>
+      <c r="B42" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="30"/>
+      <c r="B43" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="48" spans="1:5" ht="24.75">
-      <c r="A48" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="24.75">
+      <c r="A51" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="30"/>
-      <c r="B52" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="30"/>
-      <c r="B54" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" s="20"/>
+      <c r="E54" s="11" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="30"/>
-      <c r="B55" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>718</v>
+      <c r="B55" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D55" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="30"/>
+      <c r="B56" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="30"/>
+      <c r="B57" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="30"/>
+      <c r="B58" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10"/>
-      <c r="B59" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="C59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>720</v>
+      </c>
       <c r="D59" s="9" t="s">
-        <v>524</v>
+        <v>195</v>
       </c>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="65" spans="1:5" ht="24.75">
-      <c r="A65" s="1" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="10"/>
+      <c r="B62" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="68" spans="1:5" ht="24.75">
+      <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11" t="s">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="30"/>
-      <c r="B69" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E69" s="20"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="30"/>
-      <c r="B70" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="30"/>
-      <c r="B71" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="20"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="30"/>
-      <c r="B72" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C72" s="20"/>
+      <c r="B72" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="D72" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="1:5" ht="22.5">
+    <row r="73" spans="1:5">
       <c r="A73" s="30"/>
       <c r="B73" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="63" t="s">
-        <v>516</v>
+        <v>220</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="30"/>
       <c r="B74" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="30"/>
       <c r="B75" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.5">
+      <c r="A76" s="30"/>
+      <c r="B76" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="30"/>
+      <c r="B77" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="30"/>
+      <c r="B78" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="20"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13" t="s">
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="24.75">
-      <c r="A81" s="1" t="s">
+      <c r="E79" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24.75">
+      <c r="A84" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A83" s="6" t="s">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11" t="s">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="10"/>
+      <c r="B87" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="30"/>
-      <c r="B85" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E85" s="20"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="30"/>
-      <c r="B86" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="30"/>
-      <c r="B87" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="30"/>
-      <c r="B88" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C88" s="20"/>
+      <c r="B88" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="D88" s="19" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E88" s="20"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="30"/>
       <c r="B89" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="30"/>
       <c r="B90" s="20" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="30"/>
+      <c r="B91" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="30"/>
+      <c r="B92" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="20"/>
+      <c r="D92" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="30"/>
+      <c r="B93" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13" t="s">
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14" t="s">
+      <c r="C94" s="13"/>
+      <c r="D94" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="13"/>
+      <c r="E94" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/EJJ_DB_20170805.xlsx
+++ b/EJJ_DB_20170805.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="886"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="886" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="881">
   <si>
     <t>用户账号表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1800,10 +1800,6 @@
   </si>
   <si>
     <t>区域名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>省、市、区、校区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3156,10 +3152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>省：1、市：2、区：3、校区：4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3938,6 +3930,10 @@
   </si>
   <si>
     <t>LOV：1，商家 2，餐饮配送员 3，超市配送员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校：1、院区：2、栋：3、宿舍：4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4543,13 +4539,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4630,12 +4626,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4688,12 +4684,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4745,7 +4741,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4794,12 +4790,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4851,7 +4847,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4985,7 +4981,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5033,7 +5029,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5082,12 +5078,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5140,12 +5136,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5198,12 +5194,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5256,12 +5252,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5314,12 +5310,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5372,12 +5368,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5430,12 +5426,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5487,7 +5483,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5536,12 +5532,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5593,7 +5589,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5642,12 +5638,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5705,12 +5701,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5763,12 +5759,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5821,12 +5817,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5879,12 +5875,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5937,12 +5933,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -5995,12 +5991,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6053,12 +6049,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6111,12 +6107,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6169,12 +6165,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6227,12 +6223,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6285,12 +6281,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6722,12 +6718,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6780,12 +6776,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6838,12 +6834,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6896,12 +6892,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6954,12 +6950,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7012,12 +7008,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7070,12 +7066,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7133,12 +7129,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7191,12 +7187,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7249,12 +7245,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7307,12 +7303,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7365,12 +7361,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7423,12 +7419,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7481,12 +7477,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7539,12 +7535,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7597,12 +7593,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7655,12 +7651,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7713,12 +7709,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -7771,12 +7767,12 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -8079,7 +8075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -8094,7 +8090,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8123,7 +8119,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -8136,7 +8132,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -8149,7 +8145,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
@@ -8162,10 +8158,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
@@ -8178,7 +8174,7 @@
         <v>401</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -8190,7 +8186,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -8203,7 +8199,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
@@ -8231,7 +8227,7 @@
     </row>
     <row r="12" spans="1:5" s="46" customFormat="1" ht="24.75">
       <c r="A12" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -8260,7 +8256,7 @@
         <v>456</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -8273,10 +8269,10 @@
     <row r="15" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>553</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>554</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>459</v>
@@ -8286,7 +8282,7 @@
     <row r="16" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A16" s="53"/>
       <c r="B16" s="49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>458</v>
@@ -8302,19 +8298,19 @@
         <v>460</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>462</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A18" s="53"/>
       <c r="B18" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>461</v>
@@ -8329,7 +8325,7 @@
     <row r="19" spans="1:5" s="46" customFormat="1" ht="14.25">
       <c r="A19" s="53"/>
       <c r="B19" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>465</v>
@@ -8342,7 +8338,7 @@
     <row r="20" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A20" s="53"/>
       <c r="B20" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>467</v>
@@ -8355,7 +8351,7 @@
     <row r="21" spans="1:5" s="51" customFormat="1" ht="14.25">
       <c r="A21" s="53"/>
       <c r="B21" s="49" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>458</v>
@@ -8368,7 +8364,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>18</v>
@@ -8381,7 +8377,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>18</v>
@@ -8393,13 +8389,13 @@
     </row>
     <row r="26" spans="1:5" ht="24.75">
       <c r="A26" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8419,13 +8415,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D28" s="86" t="s">
         <v>8</v>
@@ -8435,69 +8431,69 @@
     <row r="29" spans="1:5">
       <c r="A29" s="6"/>
       <c r="B29" s="85" t="s">
+        <v>785</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>786</v>
+      </c>
+      <c r="D29" s="86" t="s">
         <v>787</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>788</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>789</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6"/>
       <c r="B30" s="85" t="s">
+        <v>788</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>789</v>
+      </c>
+      <c r="D30" s="86" t="s">
         <v>790</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="E30" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>792</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6"/>
       <c r="B31" s="85" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>793</v>
+      </c>
+      <c r="D31" s="86" t="s">
         <v>794</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>795</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>796</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6"/>
       <c r="B32" s="85" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C32" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6"/>
       <c r="B33" s="85" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -8507,26 +8503,26 @@
         <v>6</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="30"/>
       <c r="B35" s="20" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8552,13 +8548,13 @@
     </row>
     <row r="39" spans="1:5" ht="24.75">
       <c r="A39" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8581,148 +8577,148 @@
         <v>5</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C41" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6"/>
       <c r="B42" s="85" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6"/>
       <c r="B43" s="85" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6"/>
       <c r="B44" s="85" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="85" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C45" s="85" t="s">
         <v>149</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6"/>
       <c r="B46" s="85" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="30"/>
       <c r="B48" s="20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="30"/>
       <c r="B49" s="20" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
       <c r="B50" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="24.75">
       <c r="A53" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -8751,62 +8747,62 @@
         <v>7</v>
       </c>
       <c r="D55" s="86" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="6"/>
       <c r="B56" s="85" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D56" s="86" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="6"/>
       <c r="B57" s="85" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D57" s="86" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6"/>
       <c r="B58" s="85" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C58" s="85" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D58" s="86" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6"/>
       <c r="B59" s="85" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C59" s="85" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D59" s="86" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -10014,9 +10010,9 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="103"/>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="F2" s="103"/>
-      <c r="G2" s="98"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="35"/>
@@ -10029,16 +10025,16 @@
       <c r="G4" s="35"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="N6" s="99" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="N6" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="O6" s="100"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="103"/>
-      <c r="C7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -10069,8 +10065,8 @@
       <c r="C9" s="35"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
@@ -10089,10 +10085,10 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="N11" s="99" t="s">
+      <c r="N11" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="O11" s="100"/>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="28"/>
@@ -10118,19 +10114,19 @@
     </row>
     <row r="14" spans="2:19">
       <c r="F14" s="103"/>
-      <c r="G14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
+      <c r="G14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C15" s="59"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
     </row>
@@ -10139,12 +10135,12 @@
         <v>85</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="J16" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="J16" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="100"/>
+      <c r="K16" s="99"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="R16" s="28"/>
@@ -10164,14 +10160,14 @@
     </row>
     <row r="18" spans="2:23">
       <c r="F18" s="101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G18" s="104"/>
       <c r="J18" s="27" t="s">
         <v>367</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -10179,7 +10175,7 @@
         <v>166</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -10191,12 +10187,12 @@
         <v>118</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="33"/>
       <c r="V20" s="103"/>
-      <c r="W20" s="98"/>
+      <c r="W20" s="100"/>
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="28"/>
@@ -10205,14 +10201,14 @@
         <v>367</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
       <c r="R21" s="103"/>
-      <c r="S21" s="98"/>
+      <c r="S21" s="100"/>
       <c r="V21" s="28"/>
       <c r="W21" s="35"/>
     </row>
@@ -10237,8 +10233,8 @@
     <row r="25" spans="2:23">
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
     </row>
     <row r="26" spans="2:23">
       <c r="N26" s="35"/>
@@ -10248,33 +10244,33 @@
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="101" t="s">
-        <v>540</v>
-      </c>
-      <c r="C27" s="100"/>
+        <v>539</v>
+      </c>
+      <c r="C27" s="99"/>
       <c r="F27" s="101" t="s">
-        <v>536</v>
-      </c>
-      <c r="G27" s="100"/>
+        <v>535</v>
+      </c>
+      <c r="G27" s="99"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>171</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="N28" s="99" t="s">
+        <v>527</v>
+      </c>
+      <c r="N28" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="O28" s="100"/>
+      <c r="O28" s="99"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
     </row>
@@ -10283,7 +10279,7 @@
         <v>367</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N29" s="24" t="s">
         <v>6</v>
@@ -10294,10 +10290,10 @@
     </row>
     <row r="30" spans="2:23">
       <c r="F30" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="2:23">
@@ -10306,6 +10302,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B2:C2"/>
@@ -10316,15 +10321,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10349,13 +10345,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10391,91 +10387,91 @@
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>761</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>764</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30"/>
       <c r="B8" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>770</v>
       </c>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="30"/>
       <c r="B10" s="20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>736</v>
       </c>
       <c r="E10" s="20"/>
     </row>
@@ -10488,13 +10484,13 @@
     </row>
     <row r="14" spans="1:5" ht="24.75">
       <c r="A14" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10523,52 +10519,52 @@
         <v>122</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="29"/>
       <c r="B17" s="20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="30"/>
       <c r="B18" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="30"/>
       <c r="B19" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>764</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>27</v>
@@ -10584,26 +10580,26 @@
     <row r="21" spans="1:5">
       <c r="A21" s="30"/>
       <c r="B21" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="30"/>
       <c r="B22" s="20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>736</v>
       </c>
       <c r="E22" s="20"/>
     </row>
@@ -10638,13 +10634,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="67" customFormat="1" ht="24.75">
       <c r="A1" s="64" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="66" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="67" customFormat="1" ht="14.25">
@@ -10667,41 +10663,41 @@
         <v>456</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A4" s="74"/>
       <c r="B4" s="75" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4" s="73" t="s">
         <v>742</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="E4" s="73" t="s">
         <v>743</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>744</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A5" s="74"/>
       <c r="B5" s="75" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>458</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="67" customFormat="1" ht="14.25">
@@ -10710,38 +10706,38 @@
         <v>4</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" s="80" customFormat="1" ht="14.25">
       <c r="A7" s="76"/>
       <c r="B7" s="77" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>461</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="67" customFormat="1" ht="14.25">
       <c r="A8" s="74"/>
       <c r="B8" s="75" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>751</v>
+      </c>
+      <c r="D8" s="73" t="s">
         <v>752</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>753</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>754</v>
       </c>
       <c r="E8" s="73"/>
     </row>
@@ -10758,10 +10754,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E10" s="82"/>
     </row>
@@ -13139,10 +13135,10 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:7">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="99"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
@@ -13151,10 +13147,10 @@
       <c r="C11" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="G11" s="100"/>
+      <c r="G11" s="99"/>
     </row>
     <row r="12" spans="2:7">
       <c r="F12" s="27" t="s">
@@ -13173,10 +13169,10 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="100"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="2:11">
       <c r="F17" s="27" t="s">
@@ -13195,14 +13191,14 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="J19" s="99" t="s">
+      <c r="J19" s="98" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="100"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="J20" s="27" t="s">
         <v>345</v>
       </c>
@@ -13213,8 +13209,8 @@
     <row r="21" spans="2:11">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="28"/>
@@ -13225,10 +13221,10 @@
       <c r="G22" s="28"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="J24" s="99" t="s">
+      <c r="J24" s="98" t="s">
         <v>352</v>
       </c>
-      <c r="K24" s="100"/>
+      <c r="K24" s="99"/>
     </row>
     <row r="25" spans="2:11">
       <c r="J25" s="27" t="s">
@@ -13255,10 +13251,10 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="100"/>
+      <c r="C28" s="99"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="27" t="s">
@@ -13267,10 +13263,10 @@
       <c r="C29" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="100"/>
+      <c r="G29" s="99"/>
     </row>
     <row r="30" spans="2:11">
       <c r="F30" s="27" t="s">
@@ -13297,10 +13293,10 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="100"/>
+      <c r="C33" s="99"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="24" t="s">
@@ -13312,16 +13308,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13725,10 +13721,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="14.25">
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="100"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:15" ht="14.25">
       <c r="K3" s="27" t="s">
@@ -13747,16 +13743,16 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="100"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="14.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="K7" s="27" t="s">
@@ -13785,10 +13781,10 @@
       <c r="B9" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="98" t="s">
         <v>431</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
@@ -13799,16 +13795,16 @@
       <c r="H10" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="100"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:15" ht="14.25">
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>440</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="99"/>
       <c r="G11" s="24" t="s">
         <v>435</v>
       </c>
@@ -13851,14 +13847,14 @@
       <c r="E14" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="100"/>
+      <c r="L14" s="99"/>
     </row>
     <row r="15" spans="1:15" ht="14.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
       <c r="D15" s="24" t="s">
         <v>422</v>
       </c>
@@ -13881,8 +13877,8 @@
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
     </row>
     <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="40"/>
@@ -13896,10 +13892,10 @@
     <row r="18" spans="1:15" ht="14.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="100"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
@@ -13916,15 +13912,15 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="14.25">
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
     </row>
     <row r="21" spans="1:15">
       <c r="D21" s="24" t="s">
@@ -13940,10 +13936,10 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="14.25">
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="98" t="s">
         <v>371</v>
       </c>
-      <c r="L22" s="100"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -13967,10 +13963,10 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" ht="14.25">
-      <c r="K25" s="99" t="s">
+      <c r="K25" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="L25" s="100"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
@@ -13985,6 +13981,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K6:L6"/>
@@ -13994,12 +13996,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14032,8 +14028,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="14.25">
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" spans="2:17" ht="14.25">
       <c r="M3" s="28"/>
@@ -14041,21 +14037,21 @@
     </row>
     <row r="4" spans="2:17" ht="14.25">
       <c r="J4" s="101" t="s">
-        <v>540</v>
-      </c>
-      <c r="K4" s="100"/>
+        <v>539</v>
+      </c>
+      <c r="K4" s="99"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="2:17" ht="14.25">
       <c r="J5" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
+        <v>541</v>
+      </c>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
     </row>
     <row r="6" spans="2:17" ht="14.25">
       <c r="J6" s="24" t="s">
@@ -14072,7 +14068,7 @@
         <v>471</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -14080,18 +14076,18 @@
     <row r="8" spans="2:17" ht="14.25">
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
     </row>
     <row r="9" spans="2:17" ht="14.25">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="F9" s="99" t="s">
+      <c r="C9" s="99"/>
+      <c r="F9" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="100"/>
+      <c r="G9" s="99"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="M9" s="40"/>
@@ -14117,14 +14113,14 @@
       <c r="C11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="J11" s="99" t="s">
-        <v>483</v>
-      </c>
-      <c r="K11" s="100"/>
-      <c r="M11" s="99" t="s">
-        <v>486</v>
-      </c>
-      <c r="N11" s="100"/>
+      <c r="J11" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="M11" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="N11" s="99"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="40"/>
@@ -14139,7 +14135,7 @@
         <v>471</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -14149,22 +14145,22 @@
         <v>471</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="14.25">
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="M15" s="42"/>
       <c r="N15" s="28"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
     </row>
     <row r="16" spans="2:17" ht="14.25">
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
     </row>
@@ -14178,17 +14174,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14201,8 +14197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14216,7 +14212,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14245,35 +14241,33 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>472</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>476</v>
-      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>473</v>
@@ -14286,22 +14280,22 @@
     <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>729</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -14310,13 +14304,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -14329,7 +14323,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
@@ -14341,10 +14335,10 @@
     </row>
     <row r="12" spans="1:5" ht="24.75">
       <c r="A12" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14373,20 +14367,20 @@
         <v>7</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -14399,10 +14393,10 @@
         <v>45</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14458,7 +14452,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14487,7 +14481,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>393</v>
@@ -14500,10 +14494,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
@@ -14513,10 +14507,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
@@ -14526,10 +14520,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>572</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>33</v>
@@ -14539,10 +14533,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>573</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>574</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>34</v>
@@ -14555,7 +14549,7 @@
         <v>116</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>35</v>
@@ -14567,10 +14561,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>36</v>
@@ -14580,25 +14574,25 @@
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>578</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>579</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>580</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>38</v>
@@ -14608,10 +14602,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>39</v>
@@ -14621,50 +14615,50 @@
     <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>585</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="9" t="s">
@@ -14675,7 +14669,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="30"/>
       <c r="B17" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>110</v>
@@ -14701,7 +14695,7 @@
     </row>
     <row r="22" spans="1:5" ht="24.75">
       <c r="A22" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14730,7 +14724,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>45</v>
@@ -14743,10 +14737,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>47</v>
@@ -14756,10 +14750,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>592</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>48</v>
@@ -14769,10 +14763,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>49</v>
@@ -14782,10 +14776,10 @@
     <row r="28" spans="1:5">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>595</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>596</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>50</v>
@@ -14795,10 +14789,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>51</v>
@@ -14808,10 +14802,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>52</v>
@@ -14821,7 +14815,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
@@ -14831,7 +14825,7 @@
     </row>
     <row r="34" spans="1:5" ht="24.75">
       <c r="A34" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -14860,10 +14854,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>73</v>
@@ -14875,10 +14869,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>40</v>
@@ -14887,7 +14881,7 @@
     </row>
     <row r="40" spans="1:5" ht="24.75">
       <c r="A40" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -14916,7 +14910,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>112</v>
@@ -14929,10 +14923,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>61</v>
@@ -14942,10 +14936,10 @@
     <row r="44" spans="1:5">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>611</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>612</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>62</v>
@@ -14955,10 +14949,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>614</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>63</v>
@@ -14967,7 +14961,7 @@
     </row>
     <row r="48" spans="1:5" ht="24.75">
       <c r="A48" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -14996,7 +14990,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>112</v>
@@ -15009,10 +15003,10 @@
     <row r="51" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>617</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>618</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>66</v>
@@ -15022,10 +15016,10 @@
     <row r="52" spans="1:5">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>62</v>
@@ -15035,10 +15029,10 @@
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>67</v>
@@ -15048,7 +15042,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="12"/>
       <c r="B54" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
@@ -15061,7 +15055,7 @@
     </row>
     <row r="57" spans="1:5" ht="24.75">
       <c r="A57" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -15090,23 +15084,23 @@
         <v>59</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>624</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>74</v>
@@ -15116,10 +15110,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>75</v>
@@ -15157,7 +15151,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>111</v>
@@ -15170,40 +15164,40 @@
     <row r="67" spans="1:5">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="30"/>
       <c r="B68" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>493</v>
-      </c>
       <c r="E68" s="19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="12"/>
       <c r="B69" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>632</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>79</v>
@@ -15212,13 +15206,13 @@
     </row>
     <row r="72" spans="1:5" ht="24.75">
       <c r="A72" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -15241,7 +15235,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>7</v>
@@ -15260,19 +15254,19 @@
         <v>7</v>
       </c>
       <c r="D75" s="86" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10"/>
       <c r="B76" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>73</v>
@@ -15282,38 +15276,38 @@
     <row r="77" spans="1:5">
       <c r="A77" s="10"/>
       <c r="B77" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>246</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="10"/>
       <c r="B79" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>247</v>
@@ -15323,10 +15317,10 @@
     <row r="80" spans="1:5">
       <c r="A80" s="10"/>
       <c r="B80" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>109</v>
@@ -15336,10 +15330,10 @@
     <row r="81" spans="1:6">
       <c r="A81" s="12"/>
       <c r="B81" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>256</v>
@@ -15348,7 +15342,7 @@
     </row>
     <row r="86" spans="1:6" ht="24.75">
       <c r="A86" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -15393,10 +15387,10 @@
     <row r="89" spans="1:6">
       <c r="A89" s="10"/>
       <c r="B89" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>376</v>
@@ -15415,7 +15409,7 @@
         <v>379</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -15424,7 +15418,7 @@
         <v>58</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>62</v>
@@ -15436,7 +15430,7 @@
     <row r="92" spans="1:6">
       <c r="A92" s="10"/>
       <c r="B92" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>18</v>
@@ -15448,7 +15442,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="B93" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>18</v>
@@ -15460,7 +15454,7 @@
     <row r="94" spans="1:6">
       <c r="A94" s="12"/>
       <c r="B94" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>137</v>
@@ -15472,13 +15466,13 @@
     </row>
     <row r="97" spans="1:5" ht="24.75">
       <c r="A97" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -15516,22 +15510,22 @@
         <v>5</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="10"/>
       <c r="B101" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>18</v>
@@ -15544,7 +15538,7 @@
     <row r="102" spans="1:5">
       <c r="A102" s="12"/>
       <c r="B102" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>18</v>
@@ -15581,13 +15575,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15610,26 +15604,26 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>658</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -15639,49 +15633,49 @@
         <v>471</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>664</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>22</v>
@@ -15690,10 +15684,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>665</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>666</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>117</v>
@@ -16763,10 +16757,10 @@
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="99"/>
       <c r="I5" s="58" t="s">
         <v>104</v>
       </c>
@@ -16783,7 +16777,7 @@
         <v>85</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -16806,10 +16800,10 @@
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="99"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
@@ -16824,26 +16818,26 @@
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="Q10" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="2:22">
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="R11" s="100"/>
+      <c r="R11" s="99"/>
     </row>
     <row r="12" spans="2:22">
       <c r="Q12" s="27" t="s">
         <v>118</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
+        <v>528</v>
+      </c>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
     </row>
     <row r="13" spans="2:22">
       <c r="Q13" s="34"/>
@@ -16857,10 +16851,10 @@
     </row>
     <row r="15" spans="2:22">
       <c r="M15" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q15" s="26" t="s">
         <v>531</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>532</v>
       </c>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
@@ -16869,31 +16863,31 @@
       <c r="B16" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="99" t="s">
+      <c r="M16" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="100"/>
-      <c r="Q16" s="99" t="s">
+      <c r="N16" s="99"/>
+      <c r="Q16" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="100"/>
+      <c r="R16" s="99"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="99"/>
       <c r="M17" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>118</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -16911,8 +16905,8 @@
       <c r="R18" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="2:22">
       <c r="M19" s="27" t="s">
@@ -16929,8 +16923,8 @@
       <c r="F20" s="28"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
@@ -16942,20 +16936,20 @@
       <c r="D21" s="18"/>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
-      <c r="I21" s="99" t="s">
+      <c r="I21" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="100"/>
+      <c r="J21" s="99"/>
       <c r="M21" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q21" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="R21" s="100"/>
+        <v>486</v>
+      </c>
+      <c r="Q21" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="R21" s="99"/>
       <c r="S21" s="28"/>
       <c r="V21" s="28"/>
     </row>
@@ -16974,16 +16968,16 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="Q22" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R22" s="24" t="s">
         <v>55</v>
       </c>
       <c r="S22" s="28"/>
-      <c r="T22" s="99" t="s">
-        <v>486</v>
-      </c>
-      <c r="U22" s="100"/>
+      <c r="T22" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="U22" s="99"/>
       <c r="V22" s="28"/>
     </row>
     <row r="23" spans="2:22">
@@ -17002,14 +16996,14 @@
         <v>471</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="24" t="s">
         <v>471</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V23" s="28"/>
     </row>
@@ -17017,31 +17011,31 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="62"/>
       <c r="C25" s="61"/>
       <c r="D25" s="18"/>
       <c r="E25" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q25" s="99" t="s">
-        <v>510</v>
-      </c>
-      <c r="R25" s="100"/>
+        <v>528</v>
+      </c>
+      <c r="Q25" s="98" t="s">
+        <v>509</v>
+      </c>
+      <c r="R25" s="99"/>
       <c r="S25" s="40"/>
       <c r="T25" s="28"/>
       <c r="U25" s="40"/>
@@ -17058,10 +17052,10 @@
         <v>82</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S26" s="40"/>
       <c r="T26" s="28"/>
@@ -17078,7 +17072,7 @@
         <v>471</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S27" s="40"/>
       <c r="T27" s="28"/>
@@ -17114,8 +17108,8 @@
       <c r="J36" s="28"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
     </row>
@@ -17125,11 +17119,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E37:F37"/>
@@ -17137,13 +17133,11 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17157,7 +17151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -17224,7 +17218,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9" t="s">
@@ -17246,86 +17240,86 @@
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>264</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="94"/>
       <c r="B11" s="95" t="s">
+        <v>842</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>843</v>
+      </c>
+      <c r="D11" s="96" t="s">
         <v>844</v>
       </c>
-      <c r="C11" s="95" t="s">
-        <v>845</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>846</v>
-      </c>
       <c r="E11" s="97" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75">
       <c r="A17" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17369,29 +17363,29 @@
         <v>5</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="29"/>
       <c r="B21" s="95" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -17472,16 +17466,16 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="100"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:15" ht="14.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="K7" s="24" t="s">
@@ -17508,10 +17502,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25">
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
     </row>
@@ -17522,16 +17516,16 @@
       <c r="H10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="99" t="s">
+      <c r="N10" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="100"/>
+      <c r="O10" s="99"/>
     </row>
     <row r="11" spans="1:15" ht="14.25">
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="99"/>
       <c r="G11" s="24" t="s">
         <v>125</v>
       </c>
@@ -17562,14 +17556,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="K15" s="99" t="s">
+      <c r="B15" s="99"/>
+      <c r="K15" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="L15" s="100"/>
+      <c r="L15" s="99"/>
       <c r="N15" s="26" t="s">
         <v>83</v>
       </c>
@@ -17588,10 +17582,10 @@
       <c r="L16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="99" t="s">
+      <c r="N16" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="100"/>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="24" t="s">
@@ -17621,14 +17615,14 @@
       <c r="C20" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="99" t="s">
+      <c r="K20" s="98" t="s">
         <v>389</v>
       </c>
-      <c r="L20" s="100"/>
-      <c r="N20" s="99" t="s">
+      <c r="L20" s="99"/>
+      <c r="N20" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="O20" s="100"/>
+      <c r="O20" s="99"/>
     </row>
     <row r="21" spans="1:15">
       <c r="C21" t="s">
@@ -17693,16 +17687,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17730,13 +17724,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17759,7 +17753,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>181</v>
@@ -17774,7 +17768,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>122</v>
@@ -17787,7 +17781,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>182</v>
@@ -17800,7 +17794,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -17813,7 +17807,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>18</v>
@@ -17826,7 +17820,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>18</v>
@@ -17839,7 +17833,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>45</v>
@@ -17852,7 +17846,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>122</v>
@@ -17893,7 +17887,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
@@ -17906,10 +17900,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>174</v>
@@ -17919,25 +17913,25 @@
     <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>175</v>
@@ -17947,7 +17941,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="30"/>
       <c r="B19" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>18</v>
@@ -17960,7 +17954,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="30"/>
       <c r="B20" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>18</v>
@@ -17973,7 +17967,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="30"/>
       <c r="B21" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
@@ -17986,10 +17980,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="30"/>
       <c r="B22" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>179</v>
@@ -17999,7 +17993,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="30"/>
       <c r="B23" s="20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>183</v>
@@ -18008,16 +18002,16 @@
         <v>368</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="30"/>
       <c r="B24" s="20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>184</v>
@@ -18027,10 +18021,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="30"/>
       <c r="B25" s="20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>185</v>
@@ -18040,10 +18034,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="30"/>
       <c r="B26" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>691</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>692</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>187</v>
@@ -18053,101 +18047,101 @@
     <row r="27" spans="1:5">
       <c r="A27" s="30"/>
       <c r="B27" s="20" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="30"/>
       <c r="B28" s="20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>368</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="30"/>
       <c r="B29" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>864</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>866</v>
       </c>
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="30"/>
       <c r="B30" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="30"/>
       <c r="B31" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="30"/>
       <c r="B32" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>872</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>873</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>877</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="24.75">
       <c r="A37" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -18176,7 +18170,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>45</v>
@@ -18202,10 +18196,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="30"/>
       <c r="B41" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>694</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>695</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>192</v>
@@ -18215,10 +18209,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="30"/>
       <c r="B42" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>696</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>697</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>193</v>
@@ -18228,10 +18222,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="30"/>
       <c r="B43" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>194</v>
@@ -18241,40 +18235,40 @@
     <row r="44" spans="1:5">
       <c r="A44" s="10"/>
       <c r="B44" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>518</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>201</v>
@@ -18284,10 +18278,10 @@
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>202</v>
@@ -18303,13 +18297,13 @@
     </row>
     <row r="51" spans="1:5" ht="24.75">
       <c r="A51" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -18332,7 +18326,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>45</v>
@@ -18345,22 +18339,22 @@
     <row r="54" spans="1:5">
       <c r="A54" s="10"/>
       <c r="B54" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>707</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="30"/>
       <c r="B55" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>122</v>
@@ -18369,16 +18363,16 @@
         <v>204</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="30"/>
       <c r="B56" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>198</v>
@@ -18388,10 +18382,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="30"/>
       <c r="B57" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>199</v>
@@ -18401,10 +18395,10 @@
     <row r="58" spans="1:5">
       <c r="A58" s="30"/>
       <c r="B58" s="20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>200</v>
@@ -18414,10 +18408,10 @@
     <row r="59" spans="1:5">
       <c r="A59" s="10"/>
       <c r="B59" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>195</v>
@@ -18427,20 +18421,20 @@
     <row r="60" spans="1:5">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="10"/>
       <c r="B61" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="9" t="s">
@@ -18451,11 +18445,11 @@
     <row r="62" spans="1:5">
       <c r="A62" s="10"/>
       <c r="B62" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E62" s="11"/>
     </row>
@@ -18543,7 +18537,7 @@
         <v>220</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -18578,7 +18572,7 @@
         <v>223</v>
       </c>
       <c r="E76" s="63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -18613,7 +18607,7 @@
         <v>226</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="24.75">
